--- a/2018_Orders.xlsx
+++ b/2018_Orders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BB\Data\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\Desktop\ABB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51449E-3DF2-4870-B2B4-B7CDB28E4EEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="5925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10056" windowHeight="5928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LV" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HVMV!$A$1:$AJ$416</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1173,7 +1174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1876,23 +1877,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>43095</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -2074,7 +2075,7 @@
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -2120,7 +2121,7 @@
       <c r="T4" s="32"/>
       <c r="U4" s="32"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -2172,7 +2173,7 @@
       </c>
       <c r="U5" s="32"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -2224,7 +2225,7 @@
       </c>
       <c r="U6" s="32"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -2328,7 +2329,7 @@
       </c>
       <c r="U8" s="32"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -2380,7 +2381,7 @@
       </c>
       <c r="U9" s="32"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>9</v>
       </c>
@@ -2432,7 +2433,7 @@
       </c>
       <c r="U10" s="32"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -2484,7 +2485,7 @@
       </c>
       <c r="U11" s="32"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>11</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="U12" s="32"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>12</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>13</v>
       </c>
@@ -2622,7 +2623,7 @@
       <c r="T14" s="32"/>
       <c r="U14" s="32"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>15</v>
       </c>
@@ -2666,7 +2667,7 @@
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>16</v>
       </c>
@@ -2719,7 +2720,7 @@
       </c>
       <c r="U16" s="32"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>17</v>
       </c>
@@ -2761,7 +2762,7 @@
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>18</v>
       </c>
@@ -2803,7 +2804,7 @@
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>19</v>
       </c>
@@ -2857,7 +2858,7 @@
       </c>
       <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>20</v>
       </c>
@@ -2895,7 +2896,7 @@
       <c r="T20" s="32"/>
       <c r="U20" s="32"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>21</v>
       </c>
@@ -2947,7 +2948,7 @@
       </c>
       <c r="U21" s="32"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>22</v>
       </c>
@@ -3005,7 +3006,7 @@
       </c>
       <c r="U22" s="32"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>23</v>
       </c>
@@ -3057,7 +3058,7 @@
       </c>
       <c r="U23" s="32"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>24</v>
       </c>
@@ -3107,7 +3108,7 @@
       </c>
       <c r="U24" s="32"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>25</v>
       </c>
@@ -3157,7 +3158,7 @@
       </c>
       <c r="U25" s="32"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>26</v>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="U26" s="32"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
         <v>27</v>
       </c>
@@ -3257,7 +3258,7 @@
       </c>
       <c r="U27" s="32"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
         <v>28</v>
       </c>
@@ -3307,7 +3308,7 @@
       </c>
       <c r="U28" s="32"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
         <v>29</v>
       </c>
@@ -3356,7 +3357,7 @@
       </c>
       <c r="U29" s="32"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
         <v>30</v>
       </c>
@@ -3408,7 +3409,7 @@
       </c>
       <c r="U30" s="32"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="32">
         <v>31</v>
       </c>
@@ -3458,7 +3459,7 @@
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
     </row>
-    <row r="32" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32">
         <v>32</v>
       </c>
@@ -3504,7 +3505,7 @@
       <c r="T32" s="32"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32">
         <v>33</v>
       </c>
@@ -3556,7 +3557,7 @@
       <c r="T33" s="32"/>
       <c r="U33" s="32"/>
     </row>
-    <row r="34" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32">
         <v>34</v>
       </c>
@@ -3613,7 +3614,7 @@
       </c>
       <c r="U34" s="32"/>
     </row>
-    <row r="35" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32">
         <v>35</v>
       </c>
@@ -3665,7 +3666,7 @@
       </c>
       <c r="U35" s="32"/>
     </row>
-    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
         <v>36</v>
       </c>
@@ -3712,7 +3713,7 @@
       </c>
       <c r="U36" s="32"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
         <v>37</v>
       </c>
@@ -3766,7 +3767,7 @@
       </c>
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
         <v>38</v>
       </c>
@@ -3818,7 +3819,7 @@
       </c>
       <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="32">
         <v>39</v>
       </c>
@@ -3863,7 +3864,7 @@
       </c>
       <c r="U39" s="32"/>
     </row>
-    <row r="40" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32">
         <v>40</v>
       </c>
@@ -3919,7 +3920,7 @@
       </c>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32">
         <v>41</v>
       </c>
@@ -3975,7 +3976,7 @@
       </c>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
         <v>42</v>
       </c>
@@ -4031,7 +4032,7 @@
       </c>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32">
         <v>43</v>
       </c>
@@ -4087,7 +4088,7 @@
       </c>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -4110,7 +4111,7 @@
       <c r="T44" s="58"/>
       <c r="U44" s="32"/>
     </row>
-    <row r="45" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -4133,7 +4134,7 @@
       <c r="T45" s="58"/>
       <c r="U45" s="32"/>
     </row>
-    <row r="46" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -4156,7 +4157,7 @@
       <c r="T46" s="58"/>
       <c r="U46" s="32"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -4186,42 +4187,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B414" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K421" sqref="K421"/>
+      <selection pane="bottomRight" activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="29"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="18" max="21" width="9.109375" customWidth="1"/>
     <col min="22" max="22" width="16" style="29" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" customWidth="1"/>
-    <col min="28" max="28" width="25.140625" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.109375" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4462,7 +4463,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4533,7 +4534,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4599,7 +4600,7 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4673,7 +4674,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4753,7 +4754,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4820,7 +4821,7 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4891,7 +4892,7 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4965,7 +4966,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5036,7 +5037,7 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5109,7 +5110,7 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5169,7 +5170,7 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5242,7 +5243,7 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5378,7 +5379,7 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5451,7 +5452,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5525,7 +5526,7 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5595,7 +5596,7 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5668,7 +5669,7 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5742,7 +5743,7 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5817,7 +5818,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5887,7 +5888,7 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5967,7 +5968,7 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -6047,7 +6048,7 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="9"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>47</v>
       </c>
@@ -6125,7 +6126,7 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>48</v>
       </c>
@@ -6199,7 +6200,7 @@
       <c r="AI27" s="30"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>49</v>
       </c>
@@ -6273,7 +6274,7 @@
       <c r="AI28" s="30"/>
       <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>50</v>
       </c>
@@ -6346,7 +6347,7 @@
       <c r="AI29" s="30"/>
       <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>51</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="AI30" s="30"/>
       <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>54</v>
       </c>
@@ -6485,7 +6486,7 @@
       <c r="AI31" s="30"/>
       <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>55</v>
       </c>
@@ -6550,7 +6551,7 @@
       <c r="AI32" s="30"/>
       <c r="AJ32" s="3"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>62</v>
       </c>
@@ -6624,7 +6625,7 @@
       <c r="AI33" s="30"/>
       <c r="AJ33" s="3"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>63</v>
       </c>
@@ -6697,7 +6698,7 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>78</v>
       </c>
@@ -6768,7 +6769,7 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33"/>
       <c r="B36" s="32" t="s">
         <v>71</v>
@@ -6837,7 +6838,7 @@
       <c r="AI36" s="30"/>
       <c r="AJ36" s="31"/>
     </row>
-    <row r="37" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33"/>
       <c r="B37" s="32" t="s">
         <v>71</v>
@@ -6906,7 +6907,7 @@
       <c r="AI37" s="30"/>
       <c r="AJ37" s="31"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>95</v>
       </c>
@@ -6977,7 +6978,7 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>98</v>
       </c>
@@ -7039,7 +7040,7 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>99</v>
       </c>
@@ -7100,7 +7101,7 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>100</v>
       </c>
@@ -7170,7 +7171,7 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
         <v>101</v>
       </c>
@@ -7231,7 +7232,7 @@
       <c r="AI42" s="30"/>
       <c r="AJ42" s="31"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>102</v>
       </c>
@@ -7301,7 +7302,7 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
         <v>103</v>
       </c>
@@ -7371,7 +7372,7 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>104</v>
       </c>
@@ -7442,7 +7443,7 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>104</v>
       </c>
@@ -7512,7 +7513,7 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>105</v>
       </c>
@@ -7582,7 +7583,7 @@
       <c r="AI47" s="2"/>
       <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>106</v>
       </c>
@@ -7651,7 +7652,7 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>107</v>
       </c>
@@ -7722,7 +7723,7 @@
       <c r="AI49" s="2"/>
       <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>108</v>
       </c>
@@ -7792,7 +7793,7 @@
       <c r="AI50" s="2"/>
       <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>109</v>
       </c>
@@ -7852,7 +7853,7 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>110</v>
       </c>
@@ -7921,7 +7922,7 @@
       <c r="AI52" s="2"/>
       <c r="AJ52" s="3"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>111</v>
       </c>
@@ -7991,7 +7992,7 @@
       <c r="AI53" s="2"/>
       <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>112</v>
       </c>
@@ -8061,7 +8062,7 @@
       <c r="AI54" s="2"/>
       <c r="AJ54" s="3"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>113</v>
       </c>
@@ -8132,7 +8133,7 @@
       <c r="AI55" s="2"/>
       <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>114</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="AI56" s="2"/>
       <c r="AJ56" s="3"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>115</v>
       </c>
@@ -8272,7 +8273,7 @@
       <c r="AI57" s="2"/>
       <c r="AJ57" s="3"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>116</v>
       </c>
@@ -8333,7 +8334,7 @@
       <c r="AI58" s="2"/>
       <c r="AJ58" s="3"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>117</v>
       </c>
@@ -8394,7 +8395,7 @@
       <c r="AI59" s="2"/>
       <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>118</v>
       </c>
@@ -8464,7 +8465,7 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>119</v>
       </c>
@@ -8523,7 +8524,7 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>120</v>
       </c>
@@ -8593,7 +8594,7 @@
       <c r="AI62" s="2"/>
       <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>121</v>
       </c>
@@ -8664,7 +8665,7 @@
       <c r="AI63" s="2"/>
       <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>122</v>
       </c>
@@ -8734,7 +8735,7 @@
       <c r="AI64" s="2"/>
       <c r="AJ64" s="3"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>123</v>
       </c>
@@ -8807,7 +8808,7 @@
       <c r="AI65" s="2"/>
       <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="33">
         <v>124</v>
       </c>
@@ -8880,7 +8881,7 @@
       <c r="AI66" s="2"/>
       <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="33">
         <v>125</v>
       </c>
@@ -8953,7 +8954,7 @@
       <c r="AI67" s="2"/>
       <c r="AJ67" s="3"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="33">
         <v>126</v>
       </c>
@@ -9022,7 +9023,7 @@
       <c r="AI68" s="2"/>
       <c r="AJ68" s="3"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="33">
         <v>127</v>
       </c>
@@ -9091,7 +9092,7 @@
       <c r="AI69" s="2"/>
       <c r="AJ69" s="3"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="33">
         <v>128</v>
       </c>
@@ -9162,7 +9163,7 @@
       <c r="AI70" s="2"/>
       <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33">
         <v>129</v>
       </c>
@@ -9232,7 +9233,7 @@
       <c r="AI71" s="30"/>
       <c r="AJ71" s="31"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" s="28">
         <v>129</v>
       </c>
@@ -9293,7 +9294,7 @@
       <c r="AI72" s="2"/>
       <c r="AJ72" s="3"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>130</v>
       </c>
@@ -9364,7 +9365,7 @@
       <c r="AI73" s="2"/>
       <c r="AJ73" s="3"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="28">
         <v>131</v>
       </c>
@@ -9437,7 +9438,7 @@
       <c r="AI74" s="2"/>
       <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="28">
         <v>132</v>
       </c>
@@ -9511,7 +9512,7 @@
       <c r="AI75" s="2"/>
       <c r="AJ75" s="3"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="28">
         <v>133</v>
       </c>
@@ -9578,7 +9579,7 @@
       <c r="AI76" s="2"/>
       <c r="AJ76" s="3"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>134</v>
       </c>
@@ -9647,7 +9648,7 @@
       <c r="AI77" s="2"/>
       <c r="AJ77" s="3"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>135</v>
       </c>
@@ -9716,7 +9717,7 @@
       <c r="AI78" s="2"/>
       <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>136</v>
       </c>
@@ -9785,7 +9786,7 @@
       <c r="AI79" s="2"/>
       <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33">
         <v>137</v>
       </c>
@@ -9846,7 +9847,7 @@
       <c r="AI80" s="30"/>
       <c r="AJ80" s="31"/>
     </row>
-    <row r="81" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33">
         <v>138</v>
       </c>
@@ -9916,7 +9917,7 @@
       <c r="AI81" s="30"/>
       <c r="AJ81" s="31"/>
     </row>
-    <row r="82" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33">
         <v>139</v>
       </c>
@@ -9988,7 +9989,7 @@
       <c r="AI82" s="30"/>
       <c r="AJ82" s="31"/>
     </row>
-    <row r="83" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33">
         <v>140</v>
       </c>
@@ -10059,7 +10060,7 @@
       <c r="AI83" s="30"/>
       <c r="AJ83" s="31"/>
     </row>
-    <row r="84" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33">
         <v>141</v>
       </c>
@@ -10130,7 +10131,7 @@
       <c r="AI84" s="30"/>
       <c r="AJ84" s="31"/>
     </row>
-    <row r="85" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33">
         <v>142</v>
       </c>
@@ -10201,7 +10202,7 @@
       <c r="AI85" s="30"/>
       <c r="AJ85" s="31"/>
     </row>
-    <row r="86" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33">
         <v>143</v>
       </c>
@@ -10260,7 +10261,7 @@
       <c r="AI86" s="30"/>
       <c r="AJ86" s="31"/>
     </row>
-    <row r="87" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33">
         <v>144</v>
       </c>
@@ -10319,7 +10320,7 @@
       <c r="AI87" s="30"/>
       <c r="AJ87" s="31"/>
     </row>
-    <row r="88" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33">
         <v>145</v>
       </c>
@@ -10378,7 +10379,7 @@
       <c r="AI88" s="30"/>
       <c r="AJ88" s="31"/>
     </row>
-    <row r="89" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33">
         <v>146</v>
       </c>
@@ -10443,7 +10444,7 @@
       <c r="AI89" s="30"/>
       <c r="AJ89" s="31"/>
     </row>
-    <row r="90" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33">
         <v>147</v>
       </c>
@@ -10514,7 +10515,7 @@
       <c r="AI90" s="30"/>
       <c r="AJ90" s="31"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>148</v>
       </c>
@@ -10585,7 +10586,7 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33">
         <v>149</v>
       </c>
@@ -10656,7 +10657,7 @@
       <c r="AI92" s="30"/>
       <c r="AJ92" s="31"/>
     </row>
-    <row r="93" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33">
         <v>150</v>
       </c>
@@ -10717,7 +10718,7 @@
       <c r="AI93" s="30"/>
       <c r="AJ93" s="31"/>
     </row>
-    <row r="94" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33">
         <v>151</v>
       </c>
@@ -10788,7 +10789,7 @@
       <c r="AI94" s="30"/>
       <c r="AJ94" s="31"/>
     </row>
-    <row r="95" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33">
         <v>152</v>
       </c>
@@ -10860,7 +10861,7 @@
       <c r="AI95" s="30"/>
       <c r="AJ95" s="31"/>
     </row>
-    <row r="96" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33">
         <v>153</v>
       </c>
@@ -10933,7 +10934,7 @@
       <c r="AI96" s="30"/>
       <c r="AJ96" s="31"/>
     </row>
-    <row r="97" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33">
         <v>154</v>
       </c>
@@ -11000,7 +11001,7 @@
       <c r="AI97" s="30"/>
       <c r="AJ97" s="31"/>
     </row>
-    <row r="98" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33">
         <v>155</v>
       </c>
@@ -11070,7 +11071,7 @@
       <c r="AI98" s="30"/>
       <c r="AJ98" s="31"/>
     </row>
-    <row r="99" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33">
         <v>156</v>
       </c>
@@ -11131,7 +11132,7 @@
       <c r="AI99" s="30"/>
       <c r="AJ99" s="31"/>
     </row>
-    <row r="100" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="33">
         <v>157</v>
       </c>
@@ -11201,7 +11202,7 @@
       <c r="AI100" s="30"/>
       <c r="AJ100" s="31"/>
     </row>
-    <row r="101" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33">
         <v>158</v>
       </c>
@@ -11271,7 +11272,7 @@
       <c r="AI101" s="30"/>
       <c r="AJ101" s="31"/>
     </row>
-    <row r="102" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33">
         <v>159</v>
       </c>
@@ -11332,7 +11333,7 @@
       <c r="AI102" s="30"/>
       <c r="AJ102" s="31"/>
     </row>
-    <row r="103" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33">
         <v>160</v>
       </c>
@@ -11403,7 +11404,7 @@
       <c r="AI103" s="30"/>
       <c r="AJ103" s="31"/>
     </row>
-    <row r="104" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33">
         <v>161</v>
       </c>
@@ -11462,7 +11463,7 @@
       <c r="AI104" s="30"/>
       <c r="AJ104" s="31"/>
     </row>
-    <row r="105" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33">
         <v>162</v>
       </c>
@@ -11531,7 +11532,7 @@
       <c r="AI105" s="30"/>
       <c r="AJ105" s="31"/>
     </row>
-    <row r="106" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33">
         <v>163</v>
       </c>
@@ -11593,7 +11594,7 @@
       <c r="AI106" s="30"/>
       <c r="AJ106" s="31"/>
     </row>
-    <row r="107" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33">
         <v>164</v>
       </c>
@@ -11662,7 +11663,7 @@
       <c r="AI107" s="30"/>
       <c r="AJ107" s="31"/>
     </row>
-    <row r="108" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33">
         <v>165</v>
       </c>
@@ -11733,7 +11734,7 @@
       <c r="AI108" s="30"/>
       <c r="AJ108" s="31"/>
     </row>
-    <row r="109" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33">
         <v>166</v>
       </c>
@@ -11795,7 +11796,7 @@
       <c r="AI109" s="30"/>
       <c r="AJ109" s="31"/>
     </row>
-    <row r="110" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33">
         <v>167</v>
       </c>
@@ -11866,7 +11867,7 @@
       <c r="AI110" s="30"/>
       <c r="AJ110" s="31"/>
     </row>
-    <row r="111" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33">
         <v>168</v>
       </c>
@@ -11925,7 +11926,7 @@
       <c r="AI111" s="30"/>
       <c r="AJ111" s="31"/>
     </row>
-    <row r="112" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33">
         <v>169</v>
       </c>
@@ -11996,7 +11997,7 @@
       <c r="AI112" s="30"/>
       <c r="AJ112" s="31"/>
     </row>
-    <row r="113" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33">
         <v>170</v>
       </c>
@@ -12068,7 +12069,7 @@
       <c r="AI113" s="30"/>
       <c r="AJ113" s="31"/>
     </row>
-    <row r="114" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33">
         <v>171</v>
       </c>
@@ -12139,7 +12140,7 @@
       <c r="AI114" s="30"/>
       <c r="AJ114" s="31"/>
     </row>
-    <row r="115" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33">
         <v>172</v>
       </c>
@@ -12200,7 +12201,7 @@
       <c r="AI115" s="30"/>
       <c r="AJ115" s="31"/>
     </row>
-    <row r="116" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33">
         <v>173</v>
       </c>
@@ -12271,7 +12272,7 @@
       <c r="AI116" s="30"/>
       <c r="AJ116" s="31"/>
     </row>
-    <row r="117" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33">
         <v>174</v>
       </c>
@@ -12340,7 +12341,7 @@
       <c r="AI117" s="30"/>
       <c r="AJ117" s="31"/>
     </row>
-    <row r="118" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33">
         <v>175</v>
       </c>
@@ -12410,7 +12411,7 @@
       <c r="AI118" s="30"/>
       <c r="AJ118" s="31"/>
     </row>
-    <row r="119" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33">
         <v>176</v>
       </c>
@@ -12481,7 +12482,7 @@
       <c r="AI119" s="30"/>
       <c r="AJ119" s="31"/>
     </row>
-    <row r="120" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33">
         <v>177</v>
       </c>
@@ -12554,7 +12555,7 @@
       <c r="AI120" s="30"/>
       <c r="AJ120" s="31"/>
     </row>
-    <row r="121" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33">
         <v>178</v>
       </c>
@@ -12626,7 +12627,7 @@
       <c r="AI121" s="30"/>
       <c r="AJ121" s="31"/>
     </row>
-    <row r="122" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33">
         <v>179</v>
       </c>
@@ -12695,7 +12696,7 @@
       <c r="AI122" s="30"/>
       <c r="AJ122" s="31"/>
     </row>
-    <row r="123" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33">
         <v>180</v>
       </c>
@@ -12769,7 +12770,7 @@
       <c r="AI123" s="30"/>
       <c r="AJ123" s="31"/>
     </row>
-    <row r="124" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33">
         <v>181</v>
       </c>
@@ -12841,7 +12842,7 @@
       <c r="AI124" s="30"/>
       <c r="AJ124" s="31"/>
     </row>
-    <row r="125" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33">
         <v>182</v>
       </c>
@@ -12902,7 +12903,7 @@
       <c r="AI125" s="30"/>
       <c r="AJ125" s="31"/>
     </row>
-    <row r="126" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>183</v>
       </c>
@@ -12972,7 +12973,7 @@
       <c r="AI126" s="30"/>
       <c r="AJ126" s="31"/>
     </row>
-    <row r="127" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33">
         <v>184</v>
       </c>
@@ -13042,7 +13043,7 @@
       <c r="AI127" s="30"/>
       <c r="AJ127" s="31"/>
     </row>
-    <row r="128" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>185</v>
       </c>
@@ -13103,7 +13104,7 @@
       <c r="AI128" s="30"/>
       <c r="AJ128" s="31"/>
     </row>
-    <row r="129" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33">
         <v>186</v>
       </c>
@@ -13177,7 +13178,7 @@
       <c r="AI129" s="30"/>
       <c r="AJ129" s="31"/>
     </row>
-    <row r="130" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33">
         <v>187</v>
       </c>
@@ -13250,7 +13251,7 @@
       <c r="AI130" s="30"/>
       <c r="AJ130" s="31"/>
     </row>
-    <row r="131" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="33">
         <v>188</v>
       </c>
@@ -13323,7 +13324,7 @@
       <c r="AI131" s="30"/>
       <c r="AJ131" s="31"/>
     </row>
-    <row r="132" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>189</v>
       </c>
@@ -13396,7 +13397,7 @@
       <c r="AI132" s="30"/>
       <c r="AJ132" s="31"/>
     </row>
-    <row r="133" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="33">
         <v>190</v>
       </c>
@@ -13469,7 +13470,7 @@
       <c r="AI133" s="30"/>
       <c r="AJ133" s="31"/>
     </row>
-    <row r="134" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>191</v>
       </c>
@@ -13542,7 +13543,7 @@
       <c r="AI134" s="30"/>
       <c r="AJ134" s="31"/>
     </row>
-    <row r="135" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>192</v>
       </c>
@@ -13616,7 +13617,7 @@
       <c r="AI135" s="30"/>
       <c r="AJ135" s="31"/>
     </row>
-    <row r="136" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="33">
         <v>193</v>
       </c>
@@ -13678,7 +13679,7 @@
       <c r="AI136" s="30"/>
       <c r="AJ136" s="31"/>
     </row>
-    <row r="137" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>195</v>
       </c>
@@ -13751,7 +13752,7 @@
       <c r="AI137" s="30"/>
       <c r="AJ137" s="31"/>
     </row>
-    <row r="138" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>196</v>
       </c>
@@ -13821,7 +13822,7 @@
       <c r="AI138" s="30"/>
       <c r="AJ138" s="31"/>
     </row>
-    <row r="139" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>197</v>
       </c>
@@ -13882,7 +13883,7 @@
       <c r="AI139" s="30"/>
       <c r="AJ139" s="31"/>
     </row>
-    <row r="140" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>198</v>
       </c>
@@ -13952,7 +13953,7 @@
       <c r="AI140" s="30"/>
       <c r="AJ140" s="31"/>
     </row>
-    <row r="141" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>196</v>
       </c>
@@ -14025,7 +14026,7 @@
       <c r="AI141" s="30"/>
       <c r="AJ141" s="31"/>
     </row>
-    <row r="142" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>197</v>
       </c>
@@ -14098,7 +14099,7 @@
       <c r="AI142" s="30"/>
       <c r="AJ142" s="31"/>
     </row>
-    <row r="143" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33">
         <v>198</v>
       </c>
@@ -14154,7 +14155,7 @@
       <c r="AI143" s="30"/>
       <c r="AJ143" s="31"/>
     </row>
-    <row r="144" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="33">
         <v>199</v>
       </c>
@@ -14225,7 +14226,7 @@
       <c r="AI144" s="30"/>
       <c r="AJ144" s="31"/>
     </row>
-    <row r="145" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33">
         <v>200</v>
       </c>
@@ -14295,7 +14296,7 @@
       <c r="AI145" s="30"/>
       <c r="AJ145" s="31"/>
     </row>
-    <row r="146" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33">
         <v>201</v>
       </c>
@@ -14369,7 +14370,7 @@
       <c r="AI146" s="30"/>
       <c r="AJ146" s="31"/>
     </row>
-    <row r="147" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="33">
         <v>202</v>
       </c>
@@ -14438,7 +14439,7 @@
       <c r="AI147" s="30"/>
       <c r="AJ147" s="31"/>
     </row>
-    <row r="148" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="33">
         <v>203</v>
       </c>
@@ -14499,7 +14500,7 @@
       <c r="AI148" s="30"/>
       <c r="AJ148" s="31"/>
     </row>
-    <row r="149" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33">
         <v>204</v>
       </c>
@@ -14567,7 +14568,7 @@
       <c r="AI149" s="30"/>
       <c r="AJ149" s="31"/>
     </row>
-    <row r="150" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="33">
         <v>205</v>
       </c>
@@ -14635,7 +14636,7 @@
       <c r="AI150" s="30"/>
       <c r="AJ150" s="31"/>
     </row>
-    <row r="151" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>252</v>
       </c>
@@ -14694,7 +14695,7 @@
       <c r="AI151" s="30"/>
       <c r="AJ151" s="31"/>
     </row>
-    <row r="152" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>253</v>
       </c>
@@ -14765,7 +14766,7 @@
       <c r="AI152" s="30"/>
       <c r="AJ152" s="31"/>
     </row>
-    <row r="153" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>254</v>
       </c>
@@ -14835,7 +14836,7 @@
       <c r="AI153" s="30"/>
       <c r="AJ153" s="31"/>
     </row>
-    <row r="154" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>255</v>
       </c>
@@ -14894,7 +14895,7 @@
       <c r="AI154" s="30"/>
       <c r="AJ154" s="31"/>
     </row>
-    <row r="155" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>256</v>
       </c>
@@ -14967,7 +14968,7 @@
       <c r="AI155" s="30"/>
       <c r="AJ155" s="31"/>
     </row>
-    <row r="156" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>257</v>
       </c>
@@ -15039,7 +15040,7 @@
       <c r="AI156" s="30"/>
       <c r="AJ156" s="31"/>
     </row>
-    <row r="157" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="28">
         <v>258</v>
       </c>
@@ -15112,7 +15113,7 @@
       <c r="AI157" s="30"/>
       <c r="AJ157" s="31"/>
     </row>
-    <row r="158" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="28">
         <v>259</v>
       </c>
@@ -15172,7 +15173,7 @@
       <c r="AI158" s="30"/>
       <c r="AJ158" s="31"/>
     </row>
-    <row r="159" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28">
         <v>260</v>
       </c>
@@ -15242,7 +15243,7 @@
       <c r="AI159" s="30"/>
       <c r="AJ159" s="31"/>
     </row>
-    <row r="160" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>261</v>
       </c>
@@ -15314,7 +15315,7 @@
       <c r="AI160" s="30"/>
       <c r="AJ160" s="31"/>
     </row>
-    <row r="161" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28">
         <v>262</v>
       </c>
@@ -15385,7 +15386,7 @@
       <c r="AI161" s="30"/>
       <c r="AJ161" s="31"/>
     </row>
-    <row r="162" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28">
         <v>263</v>
       </c>
@@ -15446,7 +15447,7 @@
       <c r="AI162" s="30"/>
       <c r="AJ162" s="31"/>
     </row>
-    <row r="163" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="28">
         <v>264</v>
       </c>
@@ -15516,7 +15517,7 @@
       <c r="AI163" s="30"/>
       <c r="AJ163" s="31"/>
     </row>
-    <row r="164" spans="1:36" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="28">
         <v>265</v>
       </c>
@@ -15586,7 +15587,7 @@
       <c r="AI164" s="30"/>
       <c r="AJ164" s="31"/>
     </row>
-    <row r="165" spans="1:36" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="28">
         <v>266</v>
       </c>
@@ -15659,7 +15660,7 @@
       <c r="AI165" s="30"/>
       <c r="AJ165" s="31"/>
     </row>
-    <row r="166" spans="1:36" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="28">
         <v>267</v>
       </c>
@@ -15729,7 +15730,7 @@
       <c r="AI166" s="30"/>
       <c r="AJ166" s="31"/>
     </row>
-    <row r="167" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28">
         <v>268</v>
       </c>
@@ -15799,7 +15800,7 @@
       <c r="AI167" s="30"/>
       <c r="AJ167" s="31"/>
     </row>
-    <row r="168" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28">
         <v>269</v>
       </c>
@@ -15870,7 +15871,7 @@
       <c r="AI168" s="30"/>
       <c r="AJ168" s="31"/>
     </row>
-    <row r="169" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28">
         <v>270</v>
       </c>
@@ -15941,7 +15942,7 @@
       <c r="AI169" s="30"/>
       <c r="AJ169" s="31"/>
     </row>
-    <row r="170" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28">
         <v>271</v>
       </c>
@@ -16012,7 +16013,7 @@
       <c r="AI170" s="30"/>
       <c r="AJ170" s="31"/>
     </row>
-    <row r="171" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28">
         <v>272</v>
       </c>
@@ -16083,7 +16084,7 @@
       <c r="AI171" s="30"/>
       <c r="AJ171" s="31"/>
     </row>
-    <row r="172" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28">
         <v>273</v>
       </c>
@@ -16152,7 +16153,7 @@
       <c r="AI172" s="30"/>
       <c r="AJ172" s="31"/>
     </row>
-    <row r="173" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="28">
         <v>274</v>
       </c>
@@ -16213,7 +16214,7 @@
       <c r="AI173" s="30"/>
       <c r="AJ173" s="31"/>
     </row>
-    <row r="174" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="28">
         <v>275</v>
       </c>
@@ -16272,7 +16273,7 @@
       <c r="AI174" s="30"/>
       <c r="AJ174" s="31"/>
     </row>
-    <row r="175" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="28">
         <v>276</v>
       </c>
@@ -16345,7 +16346,7 @@
       <c r="AI175" s="30"/>
       <c r="AJ175" s="31"/>
     </row>
-    <row r="176" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
         <v>277</v>
       </c>
@@ -16415,7 +16416,7 @@
       <c r="AI176" s="30"/>
       <c r="AJ176" s="31"/>
     </row>
-    <row r="177" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28">
         <v>278</v>
       </c>
@@ -16488,7 +16489,7 @@
       <c r="AI177" s="30"/>
       <c r="AJ177" s="31"/>
     </row>
-    <row r="178" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
         <v>279</v>
       </c>
@@ -16550,7 +16551,7 @@
       <c r="AI178" s="30"/>
       <c r="AJ178" s="31"/>
     </row>
-    <row r="179" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
         <v>280</v>
       </c>
@@ -16620,7 +16621,7 @@
       <c r="AI179" s="30"/>
       <c r="AJ179" s="31"/>
     </row>
-    <row r="180" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28">
         <v>281</v>
       </c>
@@ -16692,7 +16693,7 @@
       <c r="AI180" s="30"/>
       <c r="AJ180" s="31"/>
     </row>
-    <row r="181" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28">
         <v>282</v>
       </c>
@@ -16761,7 +16762,7 @@
       <c r="AI181" s="30"/>
       <c r="AJ181" s="31"/>
     </row>
-    <row r="182" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
         <v>283</v>
       </c>
@@ -16832,7 +16833,7 @@
       <c r="AI182" s="30"/>
       <c r="AJ182" s="31"/>
     </row>
-    <row r="183" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="28">
         <v>284</v>
       </c>
@@ -16907,7 +16908,7 @@
       <c r="AI183" s="30"/>
       <c r="AJ183" s="31"/>
     </row>
-    <row r="184" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
         <v>285</v>
       </c>
@@ -16980,7 +16981,7 @@
       <c r="AI184" s="30"/>
       <c r="AJ184" s="31"/>
     </row>
-    <row r="185" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="28">
         <v>286</v>
       </c>
@@ -17053,7 +17054,7 @@
       <c r="AI185" s="30"/>
       <c r="AJ185" s="31"/>
     </row>
-    <row r="186" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="28">
         <v>287</v>
       </c>
@@ -17122,7 +17123,7 @@
       <c r="AI186" s="30"/>
       <c r="AJ186" s="31"/>
     </row>
-    <row r="187" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="28">
         <v>288</v>
       </c>
@@ -17196,7 +17197,7 @@
       <c r="AI187" s="30"/>
       <c r="AJ187" s="31"/>
     </row>
-    <row r="188" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="28">
         <v>289</v>
       </c>
@@ -17267,7 +17268,7 @@
       <c r="AI188" s="30"/>
       <c r="AJ188" s="31"/>
     </row>
-    <row r="189" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="28">
         <v>290</v>
       </c>
@@ -17336,7 +17337,7 @@
       <c r="AI189" s="30"/>
       <c r="AJ189" s="31"/>
     </row>
-    <row r="190" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="28">
         <v>291</v>
       </c>
@@ -17405,7 +17406,7 @@
       <c r="AI190" s="30"/>
       <c r="AJ190" s="31"/>
     </row>
-    <row r="191" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="28">
         <v>292</v>
       </c>
@@ -17475,7 +17476,7 @@
       <c r="AI191" s="30"/>
       <c r="AJ191" s="31"/>
     </row>
-    <row r="192" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="28">
         <v>293</v>
       </c>
@@ -17544,7 +17545,7 @@
       <c r="AI192" s="30"/>
       <c r="AJ192" s="31"/>
     </row>
-    <row r="193" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="28">
         <v>294</v>
       </c>
@@ -17615,7 +17616,7 @@
       <c r="AI193" s="30"/>
       <c r="AJ193" s="31"/>
     </row>
-    <row r="194" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
         <v>295</v>
       </c>
@@ -17685,7 +17686,7 @@
       <c r="AI194" s="30"/>
       <c r="AJ194" s="31"/>
     </row>
-    <row r="195" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="28">
         <v>296</v>
       </c>
@@ -17754,7 +17755,7 @@
       <c r="AI195" s="30"/>
       <c r="AJ195" s="31"/>
     </row>
-    <row r="196" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
         <v>297</v>
       </c>
@@ -17824,7 +17825,7 @@
       <c r="AI196" s="30"/>
       <c r="AJ196" s="31"/>
     </row>
-    <row r="197" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="28">
         <v>298</v>
       </c>
@@ -17893,7 +17894,7 @@
       <c r="AI197" s="30"/>
       <c r="AJ197" s="31"/>
     </row>
-    <row r="198" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="28">
         <v>299</v>
       </c>
@@ -17962,7 +17963,7 @@
       <c r="AI198" s="30"/>
       <c r="AJ198" s="31"/>
     </row>
-    <row r="199" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="28">
         <v>300</v>
       </c>
@@ -18032,7 +18033,7 @@
       <c r="AI199" s="30"/>
       <c r="AJ199" s="31"/>
     </row>
-    <row r="200" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="28">
         <v>301</v>
       </c>
@@ -18101,7 +18102,7 @@
       <c r="AI200" s="30"/>
       <c r="AJ200" s="31"/>
     </row>
-    <row r="201" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="28">
         <v>302</v>
       </c>
@@ -18170,7 +18171,7 @@
       <c r="AI201" s="30"/>
       <c r="AJ201" s="31"/>
     </row>
-    <row r="202" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="28">
         <v>303</v>
       </c>
@@ -18239,7 +18240,7 @@
       <c r="AI202" s="30"/>
       <c r="AJ202" s="31"/>
     </row>
-    <row r="203" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="28">
         <v>304</v>
       </c>
@@ -18309,7 +18310,7 @@
       <c r="AI203" s="30"/>
       <c r="AJ203" s="31"/>
     </row>
-    <row r="204" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="28">
         <v>305</v>
       </c>
@@ -18378,7 +18379,7 @@
       <c r="AI204" s="30"/>
       <c r="AJ204" s="31"/>
     </row>
-    <row r="205" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="28">
         <v>306</v>
       </c>
@@ -18439,7 +18440,7 @@
       <c r="AI205" s="30"/>
       <c r="AJ205" s="31"/>
     </row>
-    <row r="206" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="28">
         <v>307</v>
       </c>
@@ -18500,7 +18501,7 @@
       <c r="AI206" s="30"/>
       <c r="AJ206" s="31"/>
     </row>
-    <row r="207" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" s="32" t="s">
         <v>47</v>
@@ -18559,7 +18560,7 @@
       <c r="AI207" s="30"/>
       <c r="AJ207" s="31"/>
     </row>
-    <row r="208" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="28">
         <v>308</v>
       </c>
@@ -18629,7 +18630,7 @@
       <c r="AI208" s="30"/>
       <c r="AJ208" s="31"/>
     </row>
-    <row r="209" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
         <v>309</v>
       </c>
@@ -18691,7 +18692,7 @@
       <c r="AI209" s="30"/>
       <c r="AJ209" s="31"/>
     </row>
-    <row r="210" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
         <v>310</v>
       </c>
@@ -18762,7 +18763,7 @@
       <c r="AI210" s="30"/>
       <c r="AJ210" s="31"/>
     </row>
-    <row r="211" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="28">
         <v>311</v>
       </c>
@@ -18832,7 +18833,7 @@
       <c r="AI211" s="30"/>
       <c r="AJ211" s="31"/>
     </row>
-    <row r="212" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
         <v>312</v>
       </c>
@@ -18903,7 +18904,7 @@
       <c r="AI212" s="30"/>
       <c r="AJ212" s="31"/>
     </row>
-    <row r="213" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="28">
         <v>313</v>
       </c>
@@ -18976,7 +18977,7 @@
       <c r="AI213" s="30"/>
       <c r="AJ213" s="31"/>
     </row>
-    <row r="214" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="28">
         <v>314</v>
       </c>
@@ -19047,7 +19048,7 @@
       <c r="AI214" s="30"/>
       <c r="AJ214" s="31"/>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A215" s="32">
         <v>315</v>
       </c>
@@ -19120,7 +19121,7 @@
       <c r="AI215" s="2"/>
       <c r="AJ215" s="3"/>
     </row>
-    <row r="216" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="32">
         <v>316</v>
       </c>
@@ -19191,7 +19192,7 @@
       <c r="AI216" s="30"/>
       <c r="AJ216" s="31"/>
     </row>
-    <row r="217" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="32">
         <v>317</v>
       </c>
@@ -19260,7 +19261,7 @@
       <c r="AI217" s="30"/>
       <c r="AJ217" s="31"/>
     </row>
-    <row r="218" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="32">
         <v>318</v>
       </c>
@@ -19329,7 +19330,7 @@
       <c r="AI218" s="30"/>
       <c r="AJ218" s="31"/>
     </row>
-    <row r="219" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="32">
         <v>319</v>
       </c>
@@ -19398,7 +19399,7 @@
       <c r="AI219" s="30"/>
       <c r="AJ219" s="31"/>
     </row>
-    <row r="220" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="32">
         <v>375</v>
       </c>
@@ -19466,7 +19467,7 @@
       <c r="AI220" s="30"/>
       <c r="AJ220" s="31"/>
     </row>
-    <row r="221" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="32">
         <v>376</v>
       </c>
@@ -19535,7 +19536,7 @@
       <c r="AI221" s="30"/>
       <c r="AJ221" s="31"/>
     </row>
-    <row r="222" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="32">
         <v>377</v>
       </c>
@@ -19604,7 +19605,7 @@
       <c r="AI222" s="30"/>
       <c r="AJ222" s="31"/>
     </row>
-    <row r="223" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="32">
         <v>378</v>
       </c>
@@ -19678,7 +19679,7 @@
       <c r="AI223" s="30"/>
       <c r="AJ223" s="31"/>
     </row>
-    <row r="224" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="32">
         <v>379</v>
       </c>
@@ -19748,7 +19749,7 @@
       <c r="AI224" s="30"/>
       <c r="AJ224" s="31"/>
     </row>
-    <row r="225" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="32">
         <v>380</v>
       </c>
@@ -19819,7 +19820,7 @@
       <c r="AI225" s="30"/>
       <c r="AJ225" s="31"/>
     </row>
-    <row r="226" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="32">
         <v>381</v>
       </c>
@@ -19889,7 +19890,7 @@
       <c r="AI226" s="30"/>
       <c r="AJ226" s="31"/>
     </row>
-    <row r="227" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="32">
         <v>382</v>
       </c>
@@ -19962,7 +19963,7 @@
       <c r="AI227" s="30"/>
       <c r="AJ227" s="31"/>
     </row>
-    <row r="228" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="32">
         <v>383</v>
       </c>
@@ -20031,7 +20032,7 @@
       <c r="AI228" s="30"/>
       <c r="AJ228" s="31"/>
     </row>
-    <row r="229" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="32">
         <v>384</v>
       </c>
@@ -20104,7 +20105,7 @@
       <c r="AI229" s="30"/>
       <c r="AJ229" s="31"/>
     </row>
-    <row r="230" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="32">
         <v>385</v>
       </c>
@@ -20173,7 +20174,7 @@
       <c r="AI230" s="30"/>
       <c r="AJ230" s="31"/>
     </row>
-    <row r="231" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="32">
         <v>386</v>
       </c>
@@ -20239,7 +20240,7 @@
       <c r="AI231" s="30"/>
       <c r="AJ231" s="31"/>
     </row>
-    <row r="232" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="32">
         <v>387</v>
       </c>
@@ -20310,7 +20311,7 @@
       <c r="AI232" s="30"/>
       <c r="AJ232" s="31"/>
     </row>
-    <row r="233" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="32">
         <v>388</v>
       </c>
@@ -20381,7 +20382,7 @@
       <c r="AI233" s="30"/>
       <c r="AJ233" s="31"/>
     </row>
-    <row r="234" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="32">
         <v>389</v>
       </c>
@@ -20450,7 +20451,7 @@
       <c r="AI234" s="30"/>
       <c r="AJ234" s="31"/>
     </row>
-    <row r="235" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="32">
         <v>390</v>
       </c>
@@ -20519,7 +20520,7 @@
       <c r="AI235" s="30"/>
       <c r="AJ235" s="31"/>
     </row>
-    <row r="236" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="32">
         <v>391</v>
       </c>
@@ -20588,7 +20589,7 @@
       <c r="AI236" s="30"/>
       <c r="AJ236" s="31"/>
     </row>
-    <row r="237" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="32">
         <v>392</v>
       </c>
@@ -20657,7 +20658,7 @@
       <c r="AI237" s="30"/>
       <c r="AJ237" s="31"/>
     </row>
-    <row r="238" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="32">
         <v>393</v>
       </c>
@@ -20726,7 +20727,7 @@
       <c r="AI238" s="30"/>
       <c r="AJ238" s="31"/>
     </row>
-    <row r="239" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="32">
         <v>394</v>
       </c>
@@ -20795,7 +20796,7 @@
       <c r="AI239" s="30"/>
       <c r="AJ239" s="31"/>
     </row>
-    <row r="240" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="32">
         <v>395</v>
       </c>
@@ -20856,7 +20857,7 @@
       <c r="AI240" s="30"/>
       <c r="AJ240" s="31"/>
     </row>
-    <row r="241" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="32">
         <v>396</v>
       </c>
@@ -20915,7 +20916,7 @@
       <c r="AI241" s="30"/>
       <c r="AJ241" s="31"/>
     </row>
-    <row r="242" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="32">
         <v>397</v>
       </c>
@@ -20985,7 +20986,7 @@
       <c r="AI242" s="30"/>
       <c r="AJ242" s="31"/>
     </row>
-    <row r="243" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="32">
         <v>398</v>
       </c>
@@ -21046,7 +21047,7 @@
       <c r="AI243" s="30"/>
       <c r="AJ243" s="31"/>
     </row>
-    <row r="244" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="32">
         <v>399</v>
       </c>
@@ -21107,7 +21108,7 @@
       <c r="AI244" s="30"/>
       <c r="AJ244" s="31"/>
     </row>
-    <row r="245" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="32">
         <v>400</v>
       </c>
@@ -21168,7 +21169,7 @@
       <c r="AI245" s="30"/>
       <c r="AJ245" s="31"/>
     </row>
-    <row r="246" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="32">
         <v>400</v>
       </c>
@@ -21238,7 +21239,7 @@
       <c r="AI246" s="30"/>
       <c r="AJ246" s="31"/>
     </row>
-    <row r="247" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="32">
         <v>401</v>
       </c>
@@ -21307,7 +21308,7 @@
       <c r="AI247" s="30"/>
       <c r="AJ247" s="31"/>
     </row>
-    <row r="248" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="32">
         <v>402</v>
       </c>
@@ -21377,7 +21378,7 @@
       <c r="AI248" s="30"/>
       <c r="AJ248" s="31"/>
     </row>
-    <row r="249" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="32">
         <v>403</v>
       </c>
@@ -21438,7 +21439,7 @@
       <c r="AI249" s="30"/>
       <c r="AJ249" s="31"/>
     </row>
-    <row r="250" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="32">
         <v>404</v>
       </c>
@@ -21508,7 +21509,7 @@
       <c r="AI250" s="30"/>
       <c r="AJ250" s="31"/>
     </row>
-    <row r="251" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="32">
         <v>405</v>
       </c>
@@ -21578,7 +21579,7 @@
       <c r="AI251" s="30"/>
       <c r="AJ251" s="31"/>
     </row>
-    <row r="252" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="32">
         <v>406</v>
       </c>
@@ -21647,7 +21648,7 @@
       <c r="AI252" s="30"/>
       <c r="AJ252" s="31"/>
     </row>
-    <row r="253" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="32">
         <v>407</v>
       </c>
@@ -21716,7 +21717,7 @@
       <c r="AI253" s="30"/>
       <c r="AJ253" s="31"/>
     </row>
-    <row r="254" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="32">
         <v>408</v>
       </c>
@@ -21785,7 +21786,7 @@
       <c r="AI254" s="30"/>
       <c r="AJ254" s="31"/>
     </row>
-    <row r="255" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="32">
         <v>409</v>
       </c>
@@ -21856,7 +21857,7 @@
       <c r="AI255" s="30"/>
       <c r="AJ255" s="31"/>
     </row>
-    <row r="256" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="32">
         <v>410</v>
       </c>
@@ -21925,7 +21926,7 @@
       <c r="AI256" s="30"/>
       <c r="AJ256" s="31"/>
     </row>
-    <row r="257" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32">
         <v>411</v>
       </c>
@@ -21984,7 +21985,7 @@
       <c r="AI257" s="30"/>
       <c r="AJ257" s="31"/>
     </row>
-    <row r="258" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="32">
         <v>412</v>
       </c>
@@ -22054,7 +22055,7 @@
       <c r="AI258" s="30"/>
       <c r="AJ258" s="31"/>
     </row>
-    <row r="259" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="32">
         <v>413</v>
       </c>
@@ -22113,7 +22114,7 @@
       <c r="AI259" s="30"/>
       <c r="AJ259" s="31"/>
     </row>
-    <row r="260" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="32">
         <v>414</v>
       </c>
@@ -22182,7 +22183,7 @@
       <c r="AI260" s="30"/>
       <c r="AJ260" s="31"/>
     </row>
-    <row r="261" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="32">
         <v>415</v>
       </c>
@@ -22252,7 +22253,7 @@
       <c r="AI261" s="30"/>
       <c r="AJ261" s="31"/>
     </row>
-    <row r="262" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="32">
         <v>416</v>
       </c>
@@ -22323,7 +22324,7 @@
       <c r="AI262" s="30"/>
       <c r="AJ262" s="31"/>
     </row>
-    <row r="263" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="32">
         <v>417</v>
       </c>
@@ -22394,7 +22395,7 @@
       <c r="AI263" s="30"/>
       <c r="AJ263" s="31"/>
     </row>
-    <row r="264" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="32">
         <v>418</v>
       </c>
@@ -22453,7 +22454,7 @@
       <c r="AI264" s="30"/>
       <c r="AJ264" s="31"/>
     </row>
-    <row r="265" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="32">
         <v>419</v>
       </c>
@@ -22523,7 +22524,7 @@
       <c r="AI265" s="30"/>
       <c r="AJ265" s="31"/>
     </row>
-    <row r="266" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="32">
         <v>420</v>
       </c>
@@ -22596,7 +22597,7 @@
       <c r="AI266" s="30"/>
       <c r="AJ266" s="31"/>
     </row>
-    <row r="267" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="32">
         <v>421</v>
       </c>
@@ -22665,7 +22666,7 @@
       <c r="AI267" s="30"/>
       <c r="AJ267" s="31"/>
     </row>
-    <row r="268" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="32">
         <v>422</v>
       </c>
@@ -22736,7 +22737,7 @@
       <c r="AI268" s="30"/>
       <c r="AJ268" s="31"/>
     </row>
-    <row r="269" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="32">
         <v>423</v>
       </c>
@@ -22807,7 +22808,7 @@
       <c r="AI269" s="30"/>
       <c r="AJ269" s="31"/>
     </row>
-    <row r="270" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="32">
         <v>424</v>
       </c>
@@ -22878,7 +22879,7 @@
       <c r="AI270" s="30"/>
       <c r="AJ270" s="31"/>
     </row>
-    <row r="271" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="32">
         <v>425</v>
       </c>
@@ -22947,7 +22948,7 @@
       <c r="AI271" s="30"/>
       <c r="AJ271" s="31"/>
     </row>
-    <row r="272" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="32">
         <v>426</v>
       </c>
@@ -23018,7 +23019,7 @@
       <c r="AI272" s="30"/>
       <c r="AJ272" s="31"/>
     </row>
-    <row r="273" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="32">
         <v>427</v>
       </c>
@@ -23089,7 +23090,7 @@
       <c r="AI273" s="30"/>
       <c r="AJ273" s="31"/>
     </row>
-    <row r="274" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="32">
         <v>428</v>
       </c>
@@ -23160,7 +23161,7 @@
       <c r="AI274" s="30"/>
       <c r="AJ274" s="31"/>
     </row>
-    <row r="275" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="32">
         <v>429</v>
       </c>
@@ -23233,7 +23234,7 @@
       <c r="AI275" s="30"/>
       <c r="AJ275" s="31"/>
     </row>
-    <row r="276" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="32">
         <v>430</v>
       </c>
@@ -23304,7 +23305,7 @@
       <c r="AI276" s="30"/>
       <c r="AJ276" s="31"/>
     </row>
-    <row r="277" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="32">
         <v>431</v>
       </c>
@@ -23365,7 +23366,7 @@
       <c r="AI277" s="30"/>
       <c r="AJ277" s="31"/>
     </row>
-    <row r="278" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="32">
         <v>432</v>
       </c>
@@ -23437,7 +23438,7 @@
       <c r="AI278" s="30"/>
       <c r="AJ278" s="31"/>
     </row>
-    <row r="279" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="32">
         <v>433</v>
       </c>
@@ -23510,7 +23511,7 @@
       <c r="AI279" s="30"/>
       <c r="AJ279" s="31"/>
     </row>
-    <row r="280" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="32">
         <v>434</v>
       </c>
@@ -23583,7 +23584,7 @@
       <c r="AI280" s="30"/>
       <c r="AJ280" s="31"/>
     </row>
-    <row r="281" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="32">
         <v>435</v>
       </c>
@@ -23655,7 +23656,7 @@
       <c r="AI281" s="30"/>
       <c r="AJ281" s="31"/>
     </row>
-    <row r="282" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="32">
         <v>436</v>
       </c>
@@ -23718,7 +23719,7 @@
       <c r="AI282" s="30"/>
       <c r="AJ282" s="31"/>
     </row>
-    <row r="283" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="32">
         <v>437</v>
       </c>
@@ -23790,7 +23791,7 @@
       <c r="AI283" s="30"/>
       <c r="AJ283" s="31"/>
     </row>
-    <row r="284" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="32">
         <v>438</v>
       </c>
@@ -23862,7 +23863,7 @@
       <c r="AI284" s="30"/>
       <c r="AJ284" s="31"/>
     </row>
-    <row r="285" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="32">
         <v>439</v>
       </c>
@@ -23934,7 +23935,7 @@
       <c r="AI285" s="30"/>
       <c r="AJ285" s="31"/>
     </row>
-    <row r="286" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="32">
         <v>440</v>
       </c>
@@ -24006,7 +24007,7 @@
       <c r="AI286" s="30"/>
       <c r="AJ286" s="31"/>
     </row>
-    <row r="287" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="32">
         <v>441</v>
       </c>
@@ -24078,7 +24079,7 @@
       <c r="AI287" s="30"/>
       <c r="AJ287" s="31"/>
     </row>
-    <row r="288" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="32">
         <v>442</v>
       </c>
@@ -24150,7 +24151,7 @@
       <c r="AI288" s="30"/>
       <c r="AJ288" s="31"/>
     </row>
-    <row r="289" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="32">
         <v>445</v>
       </c>
@@ -24221,7 +24222,7 @@
       <c r="AI289" s="30"/>
       <c r="AJ289" s="31"/>
     </row>
-    <row r="290" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="32">
         <v>446</v>
       </c>
@@ -24293,7 +24294,7 @@
       <c r="AI290" s="30"/>
       <c r="AJ290" s="31"/>
     </row>
-    <row r="291" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="32">
         <v>447</v>
       </c>
@@ -24365,7 +24366,7 @@
       <c r="AI291" s="30"/>
       <c r="AJ291" s="31"/>
     </row>
-    <row r="292" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="32">
         <v>448</v>
       </c>
@@ -24437,7 +24438,7 @@
       <c r="AI292" s="30"/>
       <c r="AJ292" s="31"/>
     </row>
-    <row r="293" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="32">
         <v>449</v>
       </c>
@@ -24509,7 +24510,7 @@
       <c r="AI293" s="30"/>
       <c r="AJ293" s="31"/>
     </row>
-    <row r="294" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="32">
         <v>450</v>
       </c>
@@ -24583,7 +24584,7 @@
       <c r="AI294" s="30"/>
       <c r="AJ294" s="31"/>
     </row>
-    <row r="295" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="32">
         <v>451</v>
       </c>
@@ -24656,7 +24657,7 @@
       <c r="AI295" s="30"/>
       <c r="AJ295" s="31"/>
     </row>
-    <row r="296" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="32">
         <v>452</v>
       </c>
@@ -24729,7 +24730,7 @@
       <c r="AI296" s="30"/>
       <c r="AJ296" s="31"/>
     </row>
-    <row r="297" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="32">
         <v>453</v>
       </c>
@@ -24802,7 +24803,7 @@
       <c r="AI297" s="30"/>
       <c r="AJ297" s="31"/>
     </row>
-    <row r="298" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="32">
         <v>454</v>
       </c>
@@ -24873,7 +24874,7 @@
       <c r="AI298" s="30"/>
       <c r="AJ298" s="31"/>
     </row>
-    <row r="299" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="32">
         <v>455</v>
       </c>
@@ -24944,7 +24945,7 @@
       <c r="AI299" s="30"/>
       <c r="AJ299" s="31"/>
     </row>
-    <row r="300" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="32">
         <v>456</v>
       </c>
@@ -25015,7 +25016,7 @@
       <c r="AI300" s="30"/>
       <c r="AJ300" s="31"/>
     </row>
-    <row r="301" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="32">
         <v>457</v>
       </c>
@@ -25088,7 +25089,7 @@
       <c r="AI301" s="30"/>
       <c r="AJ301" s="31"/>
     </row>
-    <row r="302" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="32">
         <v>458</v>
       </c>
@@ -25159,7 +25160,7 @@
       <c r="AI302" s="30"/>
       <c r="AJ302" s="31"/>
     </row>
-    <row r="303" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="32">
         <v>459</v>
       </c>
@@ -25230,7 +25231,7 @@
       <c r="AI303" s="30"/>
       <c r="AJ303" s="31"/>
     </row>
-    <row r="304" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="32">
         <v>460</v>
       </c>
@@ -25301,7 +25302,7 @@
       <c r="AI304" s="30"/>
       <c r="AJ304" s="31"/>
     </row>
-    <row r="305" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="32">
         <v>461</v>
       </c>
@@ -25371,7 +25372,7 @@
       <c r="AI305" s="30"/>
       <c r="AJ305" s="31"/>
     </row>
-    <row r="306" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="32">
         <v>462</v>
       </c>
@@ -25442,7 +25443,7 @@
       <c r="AI306" s="30"/>
       <c r="AJ306" s="31"/>
     </row>
-    <row r="307" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="32">
         <v>463</v>
       </c>
@@ -25515,7 +25516,7 @@
       <c r="AI307" s="30"/>
       <c r="AJ307" s="31"/>
     </row>
-    <row r="308" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="32">
         <v>464</v>
       </c>
@@ -25585,7 +25586,7 @@
       <c r="AI308" s="30"/>
       <c r="AJ308" s="31"/>
     </row>
-    <row r="309" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="32">
         <v>465</v>
       </c>
@@ -25658,7 +25659,7 @@
       <c r="AI309" s="30"/>
       <c r="AJ309" s="31"/>
     </row>
-    <row r="310" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="32">
         <v>466</v>
       </c>
@@ -25731,7 +25732,7 @@
       <c r="AI310" s="30"/>
       <c r="AJ310" s="31"/>
     </row>
-    <row r="311" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="32">
         <v>468</v>
       </c>
@@ -25800,7 +25801,7 @@
       <c r="AI311" s="30"/>
       <c r="AJ311" s="31"/>
     </row>
-    <row r="312" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="32">
         <v>469</v>
       </c>
@@ -25869,7 +25870,7 @@
       <c r="AI312" s="30"/>
       <c r="AJ312" s="31"/>
     </row>
-    <row r="313" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="32">
         <v>470</v>
       </c>
@@ -25942,7 +25943,7 @@
       <c r="AI313" s="30"/>
       <c r="AJ313" s="31"/>
     </row>
-    <row r="314" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="32">
         <v>471</v>
       </c>
@@ -26001,7 +26002,7 @@
       <c r="AI314" s="30"/>
       <c r="AJ314" s="31"/>
     </row>
-    <row r="315" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="32">
         <v>472</v>
       </c>
@@ -26071,7 +26072,7 @@
       <c r="AI315" s="30"/>
       <c r="AJ315" s="31"/>
     </row>
-    <row r="316" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="32">
         <v>473</v>
       </c>
@@ -26140,7 +26141,7 @@
       <c r="AI316" s="30"/>
       <c r="AJ316" s="31"/>
     </row>
-    <row r="317" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="32">
         <v>474</v>
       </c>
@@ -26209,7 +26210,7 @@
       <c r="AI317" s="30"/>
       <c r="AJ317" s="31"/>
     </row>
-    <row r="318" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="32">
         <v>475</v>
       </c>
@@ -26278,7 +26279,7 @@
       <c r="AI318" s="30"/>
       <c r="AJ318" s="31"/>
     </row>
-    <row r="319" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="32">
         <v>476</v>
       </c>
@@ -26351,7 +26352,7 @@
       <c r="AI319" s="30"/>
       <c r="AJ319" s="31"/>
     </row>
-    <row r="320" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="32">
         <v>477</v>
       </c>
@@ -26424,7 +26425,7 @@
       <c r="AI320" s="30"/>
       <c r="AJ320" s="31"/>
     </row>
-    <row r="321" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="32">
         <v>478</v>
       </c>
@@ -26498,7 +26499,7 @@
       <c r="AI321" s="30"/>
       <c r="AJ321" s="31"/>
     </row>
-    <row r="322" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="32">
         <v>479</v>
       </c>
@@ -26572,7 +26573,7 @@
       <c r="AI322" s="30"/>
       <c r="AJ322" s="31"/>
     </row>
-    <row r="323" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="32">
         <v>480</v>
       </c>
@@ -26641,7 +26642,7 @@
       <c r="AI323" s="30"/>
       <c r="AJ323" s="31"/>
     </row>
-    <row r="324" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="32">
         <v>481</v>
       </c>
@@ -26710,7 +26711,7 @@
       <c r="AI324" s="30"/>
       <c r="AJ324" s="31"/>
     </row>
-    <row r="325" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="32">
         <v>482</v>
       </c>
@@ -26779,7 +26780,7 @@
       <c r="AI325" s="30"/>
       <c r="AJ325" s="31"/>
     </row>
-    <row r="326" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="32">
         <v>483</v>
       </c>
@@ -26841,7 +26842,7 @@
       <c r="AI326" s="30"/>
       <c r="AJ326" s="31"/>
     </row>
-    <row r="327" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="32">
         <v>484</v>
       </c>
@@ -26911,7 +26912,7 @@
       <c r="AI327" s="30"/>
       <c r="AJ327" s="31"/>
     </row>
-    <row r="328" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="32">
         <v>485</v>
       </c>
@@ -26972,7 +26973,7 @@
       <c r="AI328" s="30"/>
       <c r="AJ328" s="31"/>
     </row>
-    <row r="329" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="32">
         <v>486</v>
       </c>
@@ -27043,7 +27044,7 @@
       <c r="AI329" s="30"/>
       <c r="AJ329" s="31"/>
     </row>
-    <row r="330" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="32">
         <v>487</v>
       </c>
@@ -27113,7 +27114,7 @@
       <c r="AI330" s="30"/>
       <c r="AJ330" s="31"/>
     </row>
-    <row r="331" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="32">
         <v>488</v>
       </c>
@@ -27183,7 +27184,7 @@
       <c r="AI331" s="30"/>
       <c r="AJ331" s="31"/>
     </row>
-    <row r="332" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="32">
         <v>489</v>
       </c>
@@ -27253,7 +27254,7 @@
       <c r="AI332" s="30"/>
       <c r="AJ332" s="31"/>
     </row>
-    <row r="333" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="32">
         <v>490</v>
       </c>
@@ -27324,7 +27325,7 @@
       <c r="AI333" s="30"/>
       <c r="AJ333" s="31"/>
     </row>
-    <row r="334" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="32">
         <v>491</v>
       </c>
@@ -27401,7 +27402,7 @@
       <c r="AI334" s="30"/>
       <c r="AJ334" s="31"/>
     </row>
-    <row r="335" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="32">
         <v>492</v>
       </c>
@@ -27430,7 +27431,7 @@
       <c r="AI335" s="30"/>
       <c r="AJ335" s="31"/>
     </row>
-    <row r="336" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="32">
         <v>493</v>
       </c>
@@ -27459,7 +27460,7 @@
       <c r="AI336" s="30"/>
       <c r="AJ336" s="31"/>
     </row>
-    <row r="337" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="32">
         <v>494</v>
       </c>
@@ -27488,7 +27489,7 @@
       <c r="AI337" s="30"/>
       <c r="AJ337" s="31"/>
     </row>
-    <row r="338" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="32">
         <v>495</v>
       </c>
@@ -27517,7 +27518,7 @@
       <c r="AI338" s="30"/>
       <c r="AJ338" s="31"/>
     </row>
-    <row r="339" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="32">
         <v>496</v>
       </c>
@@ -27546,7 +27547,7 @@
       <c r="AI339" s="30"/>
       <c r="AJ339" s="31"/>
     </row>
-    <row r="340" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="32">
         <v>497</v>
       </c>
@@ -27575,7 +27576,7 @@
       <c r="AI340" s="30"/>
       <c r="AJ340" s="31"/>
     </row>
-    <row r="341" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="32">
         <v>498</v>
       </c>
@@ -27604,7 +27605,7 @@
       <c r="AI341" s="30"/>
       <c r="AJ341" s="31"/>
     </row>
-    <row r="342" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="32">
         <v>499</v>
       </c>
@@ -27633,7 +27634,7 @@
       <c r="AI342" s="30"/>
       <c r="AJ342" s="31"/>
     </row>
-    <row r="343" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="32">
         <v>500</v>
       </c>
@@ -27662,7 +27663,7 @@
       <c r="AI343" s="30"/>
       <c r="AJ343" s="31"/>
     </row>
-    <row r="344" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="32">
         <v>501</v>
       </c>
@@ -27691,7 +27692,7 @@
       <c r="AI344" s="30"/>
       <c r="AJ344" s="31"/>
     </row>
-    <row r="345" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="32">
         <v>502</v>
       </c>
@@ -27720,7 +27721,7 @@
       <c r="AI345" s="30"/>
       <c r="AJ345" s="31"/>
     </row>
-    <row r="346" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="32">
         <v>503</v>
       </c>
@@ -27749,7 +27750,7 @@
       <c r="AI346" s="30"/>
       <c r="AJ346" s="31"/>
     </row>
-    <row r="347" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="32">
         <v>504</v>
       </c>
@@ -27778,7 +27779,7 @@
       <c r="AI347" s="30"/>
       <c r="AJ347" s="31"/>
     </row>
-    <row r="348" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="32">
         <v>505</v>
       </c>
@@ -27807,7 +27808,7 @@
       <c r="AI348" s="30"/>
       <c r="AJ348" s="31"/>
     </row>
-    <row r="349" spans="1:36" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:36" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="32">
         <v>506</v>
       </c>
@@ -27836,7 +27837,7 @@
       <c r="AI349" s="30"/>
       <c r="AJ349" s="31"/>
     </row>
-    <row r="350" spans="1:36" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:36" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="32">
         <v>507</v>
       </c>
@@ -27865,7 +27866,7 @@
       <c r="AI350" s="30"/>
       <c r="AJ350" s="31"/>
     </row>
-    <row r="351" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="32">
         <v>508</v>
       </c>
@@ -27894,7 +27895,7 @@
       <c r="AI351" s="30"/>
       <c r="AJ351" s="31"/>
     </row>
-    <row r="352" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="32">
         <v>509</v>
       </c>
@@ -27923,7 +27924,7 @@
       <c r="AI352" s="30"/>
       <c r="AJ352" s="31"/>
     </row>
-    <row r="353" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="32">
         <v>510</v>
       </c>
@@ -27952,7 +27953,7 @@
       <c r="AI353" s="30"/>
       <c r="AJ353" s="31"/>
     </row>
-    <row r="354" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="32">
         <v>511</v>
       </c>
@@ -27981,7 +27982,7 @@
       <c r="AI354" s="30"/>
       <c r="AJ354" s="31"/>
     </row>
-    <row r="355" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="32">
         <v>512</v>
       </c>
@@ -28010,7 +28011,7 @@
       <c r="AI355" s="30"/>
       <c r="AJ355" s="31"/>
     </row>
-    <row r="356" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="32">
         <v>513</v>
       </c>
@@ -28039,7 +28040,7 @@
       <c r="AI356" s="30"/>
       <c r="AJ356" s="31"/>
     </row>
-    <row r="357" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="32">
         <v>514</v>
       </c>
@@ -28068,7 +28069,7 @@
       <c r="AI357" s="30"/>
       <c r="AJ357" s="31"/>
     </row>
-    <row r="358" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="32">
         <v>515</v>
       </c>
@@ -28097,7 +28098,7 @@
       <c r="AI358" s="30"/>
       <c r="AJ358" s="31"/>
     </row>
-    <row r="359" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="32">
         <v>516</v>
       </c>
@@ -28126,7 +28127,7 @@
       <c r="AI359" s="30"/>
       <c r="AJ359" s="31"/>
     </row>
-    <row r="360" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="32">
         <v>517</v>
       </c>
@@ -28155,7 +28156,7 @@
       <c r="AI360" s="30"/>
       <c r="AJ360" s="31"/>
     </row>
-    <row r="361" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="32">
         <v>518</v>
       </c>
@@ -28184,7 +28185,7 @@
       <c r="AI361" s="30"/>
       <c r="AJ361" s="31"/>
     </row>
-    <row r="362" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="32">
         <v>519</v>
       </c>
@@ -28213,7 +28214,7 @@
       <c r="AI362" s="30"/>
       <c r="AJ362" s="31"/>
     </row>
-    <row r="363" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="32">
         <v>520</v>
       </c>
@@ -28242,7 +28243,7 @@
       <c r="AI363" s="30"/>
       <c r="AJ363" s="31"/>
     </row>
-    <row r="364" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="32">
         <v>521</v>
       </c>
@@ -28271,7 +28272,7 @@
       <c r="AI364" s="30"/>
       <c r="AJ364" s="31"/>
     </row>
-    <row r="365" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="32">
         <v>522</v>
       </c>
@@ -28300,7 +28301,7 @@
       <c r="AI365" s="30"/>
       <c r="AJ365" s="31"/>
     </row>
-    <row r="366" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="32">
         <v>523</v>
       </c>
@@ -28329,7 +28330,7 @@
       <c r="AI366" s="30"/>
       <c r="AJ366" s="31"/>
     </row>
-    <row r="367" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="32">
         <v>524</v>
       </c>
@@ -28358,7 +28359,7 @@
       <c r="AI367" s="30"/>
       <c r="AJ367" s="31"/>
     </row>
-    <row r="368" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="32">
         <v>525</v>
       </c>
@@ -28387,7 +28388,7 @@
       <c r="AI368" s="30"/>
       <c r="AJ368" s="31"/>
     </row>
-    <row r="369" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="32">
         <v>526</v>
       </c>
@@ -28416,7 +28417,7 @@
       <c r="AI369" s="30"/>
       <c r="AJ369" s="31"/>
     </row>
-    <row r="370" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A370" s="32">
         <v>527</v>
       </c>
@@ -28445,7 +28446,7 @@
       <c r="AI370" s="30"/>
       <c r="AJ370" s="31"/>
     </row>
-    <row r="371" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="32">
         <v>528</v>
       </c>
@@ -28474,7 +28475,7 @@
       <c r="AI371" s="30"/>
       <c r="AJ371" s="31"/>
     </row>
-    <row r="372" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="32">
         <v>529</v>
       </c>
@@ -28503,7 +28504,7 @@
       <c r="AI372" s="30"/>
       <c r="AJ372" s="31"/>
     </row>
-    <row r="373" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="32">
         <v>530</v>
       </c>
@@ -28532,7 +28533,7 @@
       <c r="AI373" s="30"/>
       <c r="AJ373" s="31"/>
     </row>
-    <row r="374" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="32">
         <v>531</v>
       </c>
@@ -28561,7 +28562,7 @@
       <c r="AI374" s="30"/>
       <c r="AJ374" s="31"/>
     </row>
-    <row r="375" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="32">
         <v>532</v>
       </c>
@@ -28590,7 +28591,7 @@
       <c r="AI375" s="30"/>
       <c r="AJ375" s="31"/>
     </row>
-    <row r="376" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="32">
         <v>533</v>
       </c>
@@ -28619,7 +28620,7 @@
       <c r="AI376" s="30"/>
       <c r="AJ376" s="31"/>
     </row>
-    <row r="377" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="32">
         <v>534</v>
       </c>
@@ -28648,7 +28649,7 @@
       <c r="AI377" s="30"/>
       <c r="AJ377" s="31"/>
     </row>
-    <row r="378" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="32">
         <v>535</v>
       </c>
@@ -28677,7 +28678,7 @@
       <c r="AI378" s="30"/>
       <c r="AJ378" s="31"/>
     </row>
-    <row r="379" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="32">
         <v>536</v>
       </c>
@@ -28706,7 +28707,7 @@
       <c r="AI379" s="30"/>
       <c r="AJ379" s="31"/>
     </row>
-    <row r="380" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="32">
         <v>537</v>
       </c>
@@ -28735,7 +28736,7 @@
       <c r="AI380" s="30"/>
       <c r="AJ380" s="31"/>
     </row>
-    <row r="381" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="32">
         <v>538</v>
       </c>
@@ -28764,7 +28765,7 @@
       <c r="AI381" s="30"/>
       <c r="AJ381" s="31"/>
     </row>
-    <row r="382" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="32">
         <v>539</v>
       </c>
@@ -28793,7 +28794,7 @@
       <c r="AI382" s="30"/>
       <c r="AJ382" s="31"/>
     </row>
-    <row r="383" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="32">
         <v>540</v>
       </c>
@@ -28822,7 +28823,7 @@
       <c r="AI383" s="30"/>
       <c r="AJ383" s="31"/>
     </row>
-    <row r="384" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="32">
         <v>541</v>
       </c>
@@ -28851,7 +28852,7 @@
       <c r="AI384" s="30"/>
       <c r="AJ384" s="31"/>
     </row>
-    <row r="385" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="32">
         <v>542</v>
       </c>
@@ -28880,7 +28881,7 @@
       <c r="AI385" s="30"/>
       <c r="AJ385" s="31"/>
     </row>
-    <row r="386" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="32">
         <v>543</v>
       </c>
@@ -28909,7 +28910,7 @@
       <c r="AI386" s="30"/>
       <c r="AJ386" s="31"/>
     </row>
-    <row r="387" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="32">
         <v>544</v>
       </c>
@@ -28938,7 +28939,7 @@
       <c r="AI387" s="30"/>
       <c r="AJ387" s="31"/>
     </row>
-    <row r="388" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="32">
         <v>545</v>
       </c>
@@ -28967,7 +28968,7 @@
       <c r="AI388" s="30"/>
       <c r="AJ388" s="31"/>
     </row>
-    <row r="389" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="32">
         <v>546</v>
       </c>
@@ -28996,7 +28997,7 @@
       <c r="AI389" s="30"/>
       <c r="AJ389" s="31"/>
     </row>
-    <row r="390" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="32">
         <v>547</v>
       </c>
@@ -29025,7 +29026,7 @@
       <c r="AI390" s="30"/>
       <c r="AJ390" s="31"/>
     </row>
-    <row r="391" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="32">
         <v>548</v>
       </c>
@@ -29054,7 +29055,7 @@
       <c r="AI391" s="30"/>
       <c r="AJ391" s="31"/>
     </row>
-    <row r="392" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="32">
         <v>549</v>
       </c>
@@ -29083,7 +29084,7 @@
       <c r="AI392" s="30"/>
       <c r="AJ392" s="31"/>
     </row>
-    <row r="393" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="32">
         <v>550</v>
       </c>
@@ -29112,7 +29113,7 @@
       <c r="AI393" s="30"/>
       <c r="AJ393" s="31"/>
     </row>
-    <row r="394" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="32">
         <v>551</v>
       </c>
@@ -29141,7 +29142,7 @@
       <c r="AI394" s="30"/>
       <c r="AJ394" s="31"/>
     </row>
-    <row r="395" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="32">
         <v>552</v>
       </c>
@@ -29170,7 +29171,7 @@
       <c r="AI395" s="30"/>
       <c r="AJ395" s="31"/>
     </row>
-    <row r="396" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="32">
         <v>553</v>
       </c>
@@ -29199,7 +29200,7 @@
       <c r="AI396" s="30"/>
       <c r="AJ396" s="31"/>
     </row>
-    <row r="397" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="32">
         <v>554</v>
       </c>
@@ -29228,7 +29229,7 @@
       <c r="AI397" s="30"/>
       <c r="AJ397" s="31"/>
     </row>
-    <row r="398" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="32">
         <v>555</v>
       </c>
@@ -29257,7 +29258,7 @@
       <c r="AI398" s="30"/>
       <c r="AJ398" s="31"/>
     </row>
-    <row r="399" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="32">
         <v>556</v>
       </c>
@@ -29286,7 +29287,7 @@
       <c r="AI399" s="30"/>
       <c r="AJ399" s="31"/>
     </row>
-    <row r="400" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="32">
         <v>557</v>
       </c>
@@ -29315,7 +29316,7 @@
       <c r="AI400" s="30"/>
       <c r="AJ400" s="31"/>
     </row>
-    <row r="401" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="32">
         <v>558</v>
       </c>
@@ -29344,7 +29345,7 @@
       <c r="AI401" s="30"/>
       <c r="AJ401" s="31"/>
     </row>
-    <row r="402" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="32">
         <v>559</v>
       </c>
@@ -29373,7 +29374,7 @@
       <c r="AI402" s="30"/>
       <c r="AJ402" s="31"/>
     </row>
-    <row r="403" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="32">
         <v>560</v>
       </c>
@@ -29402,7 +29403,7 @@
       <c r="AI403" s="30"/>
       <c r="AJ403" s="31"/>
     </row>
-    <row r="404" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="32">
         <v>561</v>
       </c>
@@ -29431,7 +29432,7 @@
       <c r="AI404" s="30"/>
       <c r="AJ404" s="31"/>
     </row>
-    <row r="405" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="32">
         <v>562</v>
       </c>
@@ -29460,7 +29461,7 @@
       <c r="AI405" s="30"/>
       <c r="AJ405" s="31"/>
     </row>
-    <row r="406" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="32">
         <v>563</v>
       </c>
@@ -29489,7 +29490,7 @@
       <c r="AI406" s="30"/>
       <c r="AJ406" s="31"/>
     </row>
-    <row r="407" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="32">
         <v>564</v>
       </c>
@@ -29518,7 +29519,7 @@
       <c r="AI407" s="30"/>
       <c r="AJ407" s="31"/>
     </row>
-    <row r="408" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="32">
         <v>565</v>
       </c>
@@ -29547,7 +29548,7 @@
       <c r="AI408" s="30"/>
       <c r="AJ408" s="31"/>
     </row>
-    <row r="409" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="32">
         <v>566</v>
       </c>
@@ -29576,7 +29577,7 @@
       <c r="AI409" s="30"/>
       <c r="AJ409" s="31"/>
     </row>
-    <row r="410" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="32">
         <v>567</v>
       </c>
@@ -29605,7 +29606,7 @@
       <c r="AI410" s="30"/>
       <c r="AJ410" s="31"/>
     </row>
-    <row r="411" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="32"/>
       <c r="B411" s="32"/>
       <c r="C411" s="32"/>
@@ -29632,7 +29633,7 @@
       <c r="AI411" s="30"/>
       <c r="AJ411" s="31"/>
     </row>
-    <row r="412" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="32"/>
       <c r="B412" s="32"/>
       <c r="C412" s="32"/>
@@ -29659,7 +29660,7 @@
       <c r="AI412" s="30"/>
       <c r="AJ412" s="31"/>
     </row>
-    <row r="413" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="32"/>
       <c r="B413" s="32"/>
       <c r="C413" s="32"/>
@@ -29686,7 +29687,7 @@
       <c r="AI413" s="30"/>
       <c r="AJ413" s="31"/>
     </row>
-    <row r="414" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="32"/>
       <c r="B414" s="32"/>
       <c r="C414" s="32"/>
@@ -29719,7 +29720,7 @@
       <c r="AI414" s="30"/>
       <c r="AJ414" s="31"/>
     </row>
-    <row r="415" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:36" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="32"/>
       <c r="B415" s="32"/>
       <c r="C415" s="32"/>
@@ -29746,7 +29747,7 @@
       <c r="AI415" s="30"/>
       <c r="AJ415" s="31"/>
     </row>
-    <row r="416" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A416" s="32"/>
       <c r="B416" s="32"/>
       <c r="C416" s="32"/>
@@ -29775,13 +29776,13 @@
       <c r="AI416" s="2"/>
       <c r="AJ416" s="3"/>
     </row>
-    <row r="417" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:36" x14ac:dyDescent="0.3">
       <c r="AG417" s="2"/>
       <c r="AH417" s="2"/>
       <c r="AI417" s="2"/>
       <c r="AJ417" s="3"/>
     </row>
-    <row r="419" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:36" x14ac:dyDescent="0.3">
       <c r="D419" s="25" t="s">
         <v>61</v>
       </c>
@@ -29801,25 +29802,25 @@
         <v>801</v>
       </c>
     </row>
-    <row r="420" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:36" x14ac:dyDescent="0.3">
       <c r="K420">
         <f>K419+470</f>
         <v>1271</v>
       </c>
     </row>
-    <row r="421" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:36" x14ac:dyDescent="0.3">
       <c r="K421">
         <f>K420+30</f>
         <v>1301</v>
       </c>
     </row>
-    <row r="426" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C426">
         <f>500+900</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="427" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:36" x14ac:dyDescent="0.3">
       <c r="F427" t="s">
         <v>58</v>
       </c>
@@ -29845,7 +29846,7 @@
         <v>489.50000000000006</v>
       </c>
     </row>
-    <row r="428" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:36" x14ac:dyDescent="0.3">
       <c r="F428" t="s">
         <v>58</v>
       </c>
@@ -29871,7 +29872,7 @@
         <v>0.84693877551020413</v>
       </c>
     </row>
-    <row r="429" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:36" x14ac:dyDescent="0.3">
       <c r="M429">
         <f>340+76</f>
         <v>416</v>
@@ -29881,7 +29882,7 @@
         <v>0.93483146067415734</v>
       </c>
     </row>
-    <row r="430" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:36" x14ac:dyDescent="0.3">
       <c r="G430" t="s">
         <v>56</v>
       </c>
@@ -29899,7 +29900,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="431" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:36" x14ac:dyDescent="0.3">
       <c r="G431" t="s">
         <v>60</v>
       </c>
@@ -29910,20 +29911,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:36" x14ac:dyDescent="0.3">
       <c r="M432">
         <f>470*0.95</f>
         <v>446.5</v>
       </c>
     </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M433">
         <f>25*0.95</f>
         <v>23.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ416"/>
+  <autoFilter ref="A1:AJ416" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
